--- a/Bookstore-Login/Test-Cases/Bookstore_Login_Test_Cases_Template (1).xlsx
+++ b/Bookstore-Login/Test-Cases/Bookstore_Login_Test_Cases_Template (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\trosn\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C999937-F5AA-41E2-B440-B7C4C48F2865}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10BC1EA4-2A96-48BE-9417-6782455ED197}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -94,12 +94,53 @@
   <si>
     <t>Not Run</t>
   </si>
+  <si>
+    <t>LOGIN-002</t>
+  </si>
+  <si>
+    <t>Invalid Login with Wrong Password</t>
+  </si>
+  <si>
+    <t>User is registered with valid email</t>
+  </si>
+  <si>
+    <t>1. Go to Login Page
+2. Enter valid email
+3. Enter wrong password
+4. Click Login</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">System should display an error message: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>“Invalid email or password”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and user should remain on the Login Page</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,6 +157,14 @@
       <b/>
       <sz val="14"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -169,10 +218,10 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -480,7 +529,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
+      <selection pane="bottomLeft" activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -529,46 +578,69 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:11" ht="144" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="6" t="s">
         <v>19</v>
       </c>
       <c r="H2" s="4"/>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="6" t="s">
         <v>20</v>
       </c>
       <c r="J2" s="4"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="4"/>
-      <c r="G3" s="4"/>
+    <row r="3" spans="1:11" ht="195.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="H3" s="4"/>
+      <c r="I3" s="6" t="s">
+        <v>20</v>
+      </c>
       <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
       <c r="E4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
+      <c r="I4" s="6"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -1752,7 +1824,7 @@
     <dataValidation type="list" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D200" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"P1,P2,P3"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I200" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="I2 I5:I200" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Not Run,Pass,Fail,Blocked"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Bookstore-Login/Test-Cases/Bookstore_Login_Test_Cases_Template (1).xlsx
+++ b/Bookstore-Login/Test-Cases/Bookstore_Login_Test_Cases_Template (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\trosn\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10BC1EA4-2A96-48BE-9417-6782455ED197}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1011F5B9-E98F-48F8-8800-BDE999F595DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -134,6 +134,46 @@
       </rPr>
       <t xml:space="preserve"> and user should remain on the Login Page</t>
     </r>
+  </si>
+  <si>
+    <t>LOGIN-003</t>
+  </si>
+  <si>
+    <t>Login Attempt with Empty Fields</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>1. Go to Login Page
+2. Leave both email and password fields empty
+3. Click Login</t>
+  </si>
+  <si>
+    <t>Email: (empty)
+Password: (empty)</t>
+  </si>
+  <si>
+    <t>System should display validation error messages (e.g., “Email is required”, “Password is required”) and user should remain on the Login Page</t>
+  </si>
+  <si>
+    <t>LOGIN-004</t>
+  </si>
+  <si>
+    <t>Login Attempt with Unregistered Email</t>
+  </si>
+  <si>
+    <t>1. Go to Login Page
+2. Enter an unregistered email
+3. Enter any password
+4. Click Login</t>
+  </si>
+  <si>
+    <t>cruzahrifhajjie@gmail.com
+Q@curry</t>
+  </si>
+  <si>
+    <t>System should display an error message like “Invalid email or password” and user should remain on the Login Page</t>
   </si>
 </sst>
 </file>
@@ -528,8 +568,8 @@
   <dimension ref="A1:K200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K7" sqref="K7"/>
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -634,25 +674,69 @@
       </c>
       <c r="J3" s="4"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="E4" s="4"/>
-      <c r="G4" s="4"/>
+    <row r="4" spans="1:11" ht="205.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="H4" s="4"/>
-      <c r="I4" s="6"/>
+      <c r="I4" s="6" t="s">
+        <v>20</v>
+      </c>
       <c r="J4" s="4"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E5" s="4"/>
-      <c r="G5" s="4"/>
+    <row r="5" spans="1:11" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="H5" s="4"/>
+      <c r="I5" s="6" t="s">
+        <v>20</v>
+      </c>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="5"/>
+      <c r="D6" s="6"/>
       <c r="E6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
+      <c r="I6" s="5"/>
       <c r="J6" s="4"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -1821,10 +1905,10 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D200" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="D7:D200" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"P1,P2,P3"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="I2 I5:I200" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="I2 I7:I200" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Not Run,Pass,Fail,Blocked"</formula1>
     </dataValidation>
   </dataValidations>
